--- a/PG_GUI/PG_GUI_Notes.xlsx
+++ b/PG_GUI/PG_GUI_Notes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Power_Generation_CEP_GUI\PG_GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Powe_Generation</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>Max1100620</t>
+  </si>
+  <si>
+    <t>https://www.shutterstock.com/search/cartoon-power-plant</t>
+  </si>
+  <si>
+    <t>links for picture</t>
   </si>
 </sst>
 </file>
@@ -489,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,6 +679,16 @@
         <v>41</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/PG_GUI/PG_GUI_Notes.xlsx
+++ b/PG_GUI/PG_GUI_Notes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Powe_Generation</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>links for picture</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Admin\\Documents\\GitHub\\Power_Generation_CEP_GUI\\PG_GUI\\load_profile.xlsx</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Admin\\Documents\\GitHub\\Power_Generation_CEP_GUI\\PG_GUI\\Loadprofile_2.xlsx</t>
   </si>
 </sst>
 </file>
@@ -215,8 +221,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I29" totalsRowShown="0">
-  <autoFilter ref="A3:I29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I30" totalsRowShown="0">
+  <autoFilter ref="A3:I30"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Colour"/>
     <tableColumn id="2" name="Colour Value"/>
@@ -495,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +512,7 @@
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="71.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="26.42578125" customWidth="1"/>
@@ -689,6 +695,16 @@
         <v>43</v>
       </c>
     </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
